--- a/medicine/Enfance/DIXI_Kinderliteraturpreis/DIXI_Kinderliteraturpreis.xlsx
+++ b/medicine/Enfance/DIXI_Kinderliteraturpreis/DIXI_Kinderliteraturpreis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le DIXI Kinderliteraturpreis est un prix littéraire qui récompense de jeunes auteurs de la littérature pour les jeunes. Il peut s'agir d'écrivains ou d'illustrateurs. Ce prix est décerné depuis 2001 dans deux catégories :
 Texte
@@ -514,7 +526,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>2007
 Texte : Yvonne Bachleitner pour Annabell, ach Annabell
